--- a/src/main/resources/excel_files/factory_1/file.xlsx
+++ b/src/main/resources/excel_files/factory_1/file.xlsx
@@ -4771,13 +4771,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.42578125" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" style="1" width="22.7109375" collapsed="false"/>
-    <col min="8" max="10" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="1" width="22.7109375" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5069,10 +5069,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="101" width="8.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="95" width="26.7109375" collapsed="false"/>
-    <col min="3" max="9" customWidth="true" style="95" width="18.28515625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="1" max="1" style="101" width="8.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="95" width="26.7109375" collapsed="true"/>
+    <col min="3" max="9" customWidth="true" style="95" width="18.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5465,9 +5465,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="135" width="8.85546875" collapsed="false"/>
-    <col min="2" max="9" customWidth="true" style="135" width="16.28515625" collapsed="false"/>
-    <col min="10" max="16384" style="135" width="8.85546875" collapsed="false"/>
+    <col min="1" max="1" style="135" width="8.85546875" collapsed="true"/>
+    <col min="2" max="9" customWidth="true" style="135" width="16.28515625" collapsed="true"/>
+    <col min="10" max="16384" style="135" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -5641,11 +5641,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="21.85546875" collapsed="false"/>
-    <col min="4" max="7" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="21.85546875" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -5846,8 +5846,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.42578125" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6848,11 +6848,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="22.28515625" collapsed="false"/>
-    <col min="4" max="14" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="15" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
+    <col min="4" max="14" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="15" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -7135,8 +7135,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.42578125" collapsed="false"/>
-    <col min="2" max="5" customWidth="true" width="20.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7724,11 +7724,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="21.28515625" collapsed="false"/>
-    <col min="4" max="17" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="18" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="21.28515625" collapsed="true"/>
+    <col min="4" max="17" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="18" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -8040,18 +8040,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="50" width="8.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="50" width="22.0" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="50" width="14.42578125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="50" width="22.5703125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="50" width="23.42578125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="50" width="17.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="50" width="21.85546875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="50" width="22.28515625" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="50" width="18.28515625" collapsed="false"/>
-    <col min="10" max="16" customWidth="true" style="50" width="16.42578125" collapsed="false"/>
-    <col min="17" max="23" customWidth="true" style="50" width="25.7109375" collapsed="false"/>
-    <col min="24" max="16384" style="50" width="8.7109375" collapsed="false"/>
+    <col min="1" max="1" style="50" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="50" width="22.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="50" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="50" width="22.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="50" width="23.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="50" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="50" width="21.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="50" width="22.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="50" width="18.28515625" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" style="50" width="16.42578125" collapsed="true"/>
+    <col min="17" max="23" customWidth="true" style="50" width="25.7109375" collapsed="true"/>
+    <col min="24" max="16384" style="50" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
@@ -8423,11 +8423,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="false"/>
-    <col min="2" max="6" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="20.7109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="17.85546875" collapsed="false"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="11.140625" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="17.85546875" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -8620,11 +8620,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
